--- a/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>10.25180840492249</v>
+        <v>8.349972009658813</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>9.07361102104187</v>
+        <v>7.872559547424316</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="O1" t="n">
-        <v>9.907066106796265</v>
+        <v>8.508376359939575</v>
       </c>
       <c r="P1" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>135.6597092151642</v>
+        <v>105.7344560623169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>137.6110055446625</v>
+        <v>104.7847876548767</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>120.5693225860596</v>
+        <v>106.5014197826385</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>154.0863845348358</v>
+        <v>102.081757068634</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>102.9290120601654</v>
+        <v>121.4722325801849</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>111.425094127655</v>
+        <v>101.4580068588257</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0012910366058</v>
+        <v>900.0012145042419</v>
       </c>
       <c r="F4" t="n">
-        <v>1.293558134292673</v>
+        <v>1.126318034963875</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>900.0021629333496</v>
+        <v>463.9092853069305</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7956235562625179</v>
+        <v>1.424637425852717</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>900.001104593277</v>
+        <v>900.0013699531555</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7445021391583221</v>
+        <v>1.268225067696895</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>138.7000770568848</v>
+        <v>89.77085137367249</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>146.1757907867432</v>
+        <v>87.17020511627197</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>108.2194118499756</v>
+        <v>93.59689855575562</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>62.64740133285522</v>
+        <v>44.68819427490234</v>
       </c>
       <c r="F6" t="n">
-        <v>3.31143437546192</v>
+        <v>2.107717157713259</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>136.2375085353851</v>
+        <v>145.763952255249</v>
       </c>
       <c r="K6" t="n">
-        <v>2.419093546442118</v>
+        <v>0.9809648951263492</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>198.1462669372559</v>
+        <v>403.4841275215149</v>
       </c>
       <c r="P6" t="n">
-        <v>1.868277412232319</v>
+        <v>0.3967382977564806</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.0013997554779</v>
+        <v>900.001424074173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01432288030459157</v>
+        <v>0.01005236669784279</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>900.0012269020081</v>
+        <v>900.0015861988068</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01006269337440899</v>
+        <v>0.01687494099216821</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>900.0015366077423</v>
+        <v>900.0017347335815</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01703971420587638</v>
+        <v>0.01813374047597576</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>231.7859930992126</v>
+        <v>900.000825881958</v>
       </c>
       <c r="F8" t="n">
-        <v>11.3680472670617</v>
+        <v>5.398074069731149</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -967,40 +967,40 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>413.2848742008209</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.493139320138231</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>problem</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>21.83813858032227</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.47513574714383</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>696.807599067688</v>
+        <v>398.246110200882</v>
       </c>
       <c r="P8" t="n">
-        <v>6.133692036842591</v>
+        <v>7.158441914372187</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>57.35822486877441</v>
+        <v>97.31901836395264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4410647405172155</v>
+        <v>0.09703245360446315</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>93.78760600090027</v>
+        <v>112.9906914234161</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4834419413746604</v>
+        <v>0.1317534096671578</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>113.0034110546112</v>
+        <v>113.5045659542084</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1820813961013834</v>
+        <v>0.1289779302596749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.97603940963745</v>
+        <v>65.11429524421692</v>
       </c>
       <c r="F10" t="n">
-        <v>5.659088734798147</v>
+        <v>4.659993979221054</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>43.83779311180115</v>
+        <v>116.8411049842834</v>
       </c>
       <c r="K10" t="n">
-        <v>5.790462306770092</v>
+        <v>4.408391614053658</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>44.30332732200623</v>
+        <v>47.07158946990967</v>
       </c>
       <c r="P10" t="n">
-        <v>5.573044572487841</v>
+        <v>5.813303951724202</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.000880241394</v>
+        <v>900.0009634494781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4976234765713395</v>
+        <v>0.3480972744493687</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>900.0009412765503</v>
+        <v>900.001297712326</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2208371706127343</v>
+        <v>0.2127448874219823</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>900.0008387565613</v>
+        <v>900.0009214878082</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4917958067863248</v>
+        <v>0.2823611731888098</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>326.3775336742401</v>
+        <v>900.0006468296051</v>
       </c>
       <c r="F12" t="n">
-        <v>17.71036593230279</v>
+        <v>19.13493324940919</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>900.0007152557373</v>
+        <v>900.0006489753723</v>
       </c>
       <c r="K12" t="n">
-        <v>20.17409456144855</v>
+        <v>19.92697582108032</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>900.0006244182587</v>
+        <v>900.0006577968597</v>
       </c>
       <c r="P12" t="n">
-        <v>17.97789069492022</v>
+        <v>18.30304646431745</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>

--- a/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,753 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>900.001282453537</v>
+      </c>
+      <c r="F4" t="n">
+        <v>106323</v>
+      </c>
+      <c r="G4" t="n">
+        <v>709.1289613666951</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>462.9520449638367</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60774</v>
+      </c>
+      <c r="M4" t="n">
+        <v>335.49502213374</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>900.001323223114</v>
+      </c>
+      <c r="R4" t="n">
+        <v>119018</v>
+      </c>
+      <c r="S4" t="n">
+        <v>475.6702326235607</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>89.65650248527527</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26955</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>87.53704619407654</v>
+      </c>
+      <c r="L5" t="n">
+        <v>27228</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>92.87222218513489</v>
+      </c>
+      <c r="R5" t="n">
+        <v>30190</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>45.10278820991516</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3164</v>
+      </c>
+      <c r="G6" t="n">
+        <v>67.82203948264628</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>145.1887538433075</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13390</v>
+      </c>
+      <c r="M6" t="n">
+        <v>49.51954966692035</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>405.6565618515015</v>
+      </c>
+      <c r="R6" t="n">
+        <v>42762</v>
+      </c>
+      <c r="S6" t="n">
+        <v>28.40462657848961</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>900.0013854503632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>147713</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.019908540585472</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>900.0015771389008</v>
+      </c>
+      <c r="L7" t="n">
+        <v>146322</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.718634027732563</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>900.0016443729401</v>
+      </c>
+      <c r="R7" t="n">
+        <v>148106</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.855890387095108</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>900.000855922699</v>
+      </c>
+      <c r="F8" t="n">
+        <v>47255</v>
+      </c>
+      <c r="G8" t="n">
+        <v>122.6925629180011</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>416.6041538715363</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20931</v>
+      </c>
+      <c r="M8" t="n">
+        <v>115.4008708376014</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>399.9909780025482</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12235</v>
+      </c>
+      <c r="S8" t="n">
+        <v>116.237873376158</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>97.94404292106628</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9969</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.74595139014652</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>113.9959042072296</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12822</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.17465327639814</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>114.1223576068878</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11698</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14.80765353030913</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>65.1568284034729</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2109</v>
+      </c>
+      <c r="G10" t="n">
+        <v>82.33213668298596</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>117.0335383415222</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4560</v>
+      </c>
+      <c r="M10" t="n">
+        <v>81.51021465602622</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>47.20744252204895</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1369</v>
+      </c>
+      <c r="S10" t="n">
+        <v>85.32283298843674</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>900.0008957386017</v>
+      </c>
+      <c r="F11" t="n">
+        <v>49616</v>
+      </c>
+      <c r="G11" t="n">
+        <v>53.63079366995728</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>900.0014259815216</v>
+      </c>
+      <c r="L11" t="n">
+        <v>58113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>27.15332326160043</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>900.0008919239044</v>
+      </c>
+      <c r="R11" t="n">
+        <v>49790</v>
+      </c>
+      <c r="S11" t="n">
+        <v>39.62578947683173</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>900.0007028579712</v>
+      </c>
+      <c r="F12" t="n">
+        <v>19530</v>
+      </c>
+      <c r="G12" t="n">
+        <v>95.03350725024458</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>900.0006952285767</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16882</v>
+      </c>
+      <c r="M12" t="n">
+        <v>95.22163479532385</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>900.0006878376007</v>
+      </c>
+      <c r="R12" t="n">
+        <v>18704</v>
+      </c>
+      <c r="S12" t="n">
+        <v>94.8236213394848</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>timelimit</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
+++ b/verif_results/exact/datos_verificacion_softplus_1como2.xlsx
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>8.41472315788269</v>
+        <v>9.483863353729248</v>
       </c>
       <c r="F1" t="n">
-        <v>2482</v>
+        <v>2666</v>
       </c>
       <c r="G1" t="n">
         <v>0</v>
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>7.765330791473389</v>
+        <v>8.289687395095825</v>
       </c>
       <c r="L1" t="n">
-        <v>2457</v>
+        <v>2391</v>
       </c>
       <c r="M1" t="n">
         <v>0</v>
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>9.271595478057861</v>
+        <v>9.336359977722168</v>
       </c>
       <c r="R1" t="n">
-        <v>2784</v>
+        <v>2351</v>
       </c>
       <c r="S1" t="n">
         <v>0</v>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104.1132023334503</v>
+        <v>119.4761140346527</v>
       </c>
       <c r="F2" t="n">
-        <v>29808</v>
+        <v>33439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>105.1622650623322</v>
+        <v>106.2572131156921</v>
       </c>
       <c r="L2" t="n">
-        <v>32353</v>
+        <v>27449</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>107.1482090950012</v>
+        <v>111.278172492981</v>
       </c>
       <c r="R2" t="n">
-        <v>31373</v>
+        <v>29998</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102.4321389198303</v>
+        <v>95.6310658454895</v>
       </c>
       <c r="F3" t="n">
-        <v>42311</v>
+        <v>36324</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>121.0117340087891</v>
+        <v>85.96838235855103</v>
       </c>
       <c r="L3" t="n">
-        <v>44708</v>
+        <v>33030</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>102.3021416664124</v>
+        <v>108.7201251983643</v>
       </c>
       <c r="R3" t="n">
-        <v>41601</v>
+        <v>41115</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.001282453537</v>
+        <v>104.3203625679016</v>
       </c>
       <c r="F4" t="n">
-        <v>106323</v>
+        <v>13559</v>
       </c>
       <c r="G4" t="n">
-        <v>709.1289613666951</v>
+        <v>143.1767211112898</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -701,46 +701,46 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>900.0013129711151</v>
+      </c>
+      <c r="L4" t="n">
+        <v>113140</v>
+      </c>
+      <c r="M4" t="n">
+        <v>504.8726014162372</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>timelimit</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>prop</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>462.9520449638367</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60774</v>
-      </c>
-      <c r="M4" t="n">
-        <v>335.49502213374</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>mix</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>900.001323223114</v>
+        <v>900.0013897418976</v>
       </c>
       <c r="R4" t="n">
-        <v>119018</v>
+        <v>113417</v>
       </c>
       <c r="S4" t="n">
-        <v>475.6702326235607</v>
+        <v>506.1280253072439</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>89.65650248527527</v>
+        <v>77.7576699256897</v>
       </c>
       <c r="F5" t="n">
-        <v>26955</v>
+        <v>23316</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>87.53704619407654</v>
+        <v>103.9989247322083</v>
       </c>
       <c r="L5" t="n">
-        <v>27228</v>
+        <v>31045</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>92.87222218513489</v>
+        <v>108.7678320407867</v>
       </c>
       <c r="R5" t="n">
-        <v>30190</v>
+        <v>34193</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>45.10278820991516</v>
+        <v>435.5370080471039</v>
       </c>
       <c r="F6" t="n">
-        <v>3164</v>
+        <v>44006</v>
       </c>
       <c r="G6" t="n">
-        <v>67.82203948264628</v>
+        <v>28.72805993264106</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>145.1887538433075</v>
+        <v>112.6983604431152</v>
       </c>
       <c r="L6" t="n">
-        <v>13390</v>
+        <v>8697</v>
       </c>
       <c r="M6" t="n">
-        <v>49.51954966692035</v>
+        <v>59.42298788168687</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>405.6565618515015</v>
+        <v>64.15312385559082</v>
       </c>
       <c r="R6" t="n">
-        <v>42762</v>
+        <v>4926</v>
       </c>
       <c r="S6" t="n">
-        <v>28.40462657848961</v>
+        <v>60.36264873947883</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>900.0013854503632</v>
+        <v>900.0018773078918</v>
       </c>
       <c r="F7" t="n">
-        <v>147713</v>
+        <v>149086</v>
       </c>
       <c r="G7" t="n">
-        <v>1.019908540585472</v>
+        <v>1.721933314250441</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>900.0015771389008</v>
+        <v>900.0014390945435</v>
       </c>
       <c r="L7" t="n">
-        <v>146322</v>
+        <v>147769</v>
       </c>
       <c r="M7" t="n">
-        <v>1.718634027732563</v>
+        <v>1.356238250712547</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>900.0016443729401</v>
+        <v>900.001457452774</v>
       </c>
       <c r="R7" t="n">
-        <v>148106</v>
+        <v>157651</v>
       </c>
       <c r="S7" t="n">
-        <v>1.855890387095108</v>
+        <v>1.373201683387388</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>900.000855922699</v>
+        <v>900.0009298324585</v>
       </c>
       <c r="F8" t="n">
-        <v>47255</v>
+        <v>46608</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6925629180011</v>
+        <v>116.5722350587043</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>416.6041538715363</v>
+        <v>619.0913870334625</v>
       </c>
       <c r="L8" t="n">
-        <v>20931</v>
+        <v>39336</v>
       </c>
       <c r="M8" t="n">
-        <v>115.4008708376014</v>
+        <v>112.4096758358724</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>399.9909780025482</v>
+        <v>900.0009734630585</v>
       </c>
       <c r="R8" t="n">
-        <v>12235</v>
+        <v>59731</v>
       </c>
       <c r="S8" t="n">
-        <v>116.237873376158</v>
+        <v>113.7620503319317</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
     </row>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97.94404292106628</v>
+        <v>76.4409339427948</v>
       </c>
       <c r="F9" t="n">
-        <v>9969</v>
+        <v>6102</v>
       </c>
       <c r="G9" t="n">
-        <v>10.74595139014652</v>
+        <v>20.08967427679983</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>113.9959042072296</v>
+        <v>77.04463243484497</v>
       </c>
       <c r="L9" t="n">
-        <v>12822</v>
+        <v>6954</v>
       </c>
       <c r="M9" t="n">
-        <v>15.17465327639814</v>
+        <v>25.67368728307343</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>114.1223576068878</v>
+        <v>77.99539136886597</v>
       </c>
       <c r="R9" t="n">
-        <v>11698</v>
+        <v>7194</v>
       </c>
       <c r="S9" t="n">
-        <v>14.80765353030913</v>
+        <v>16.90275042186798</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,13 +1184,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65.1568284034729</v>
+        <v>18.19393038749695</v>
       </c>
       <c r="F10" t="n">
-        <v>2109</v>
+        <v>570</v>
       </c>
       <c r="G10" t="n">
-        <v>82.33213668298596</v>
+        <v>84.7523477882818</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>117.0335383415222</v>
+        <v>39.91072702407837</v>
       </c>
       <c r="L10" t="n">
-        <v>4560</v>
+        <v>1038</v>
       </c>
       <c r="M10" t="n">
-        <v>81.51021465602622</v>
+        <v>85.99475645758169</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>47.20744252204895</v>
+        <v>30.71867704391479</v>
       </c>
       <c r="R10" t="n">
-        <v>1369</v>
+        <v>1234</v>
       </c>
       <c r="S10" t="n">
-        <v>85.32283298843674</v>
+        <v>82.75953508841182</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>900.0008957386017</v>
+        <v>900.0012364387512</v>
       </c>
       <c r="F11" t="n">
-        <v>49616</v>
+        <v>56921</v>
       </c>
       <c r="G11" t="n">
-        <v>53.63079366995728</v>
+        <v>31.33366380530278</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>900.0014259815216</v>
+        <v>299.5161337852478</v>
       </c>
       <c r="L11" t="n">
-        <v>58113</v>
+        <v>18895</v>
       </c>
       <c r="M11" t="n">
-        <v>27.15332326160043</v>
+        <v>89.62170596817255</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>900.0008919239044</v>
+        <v>900.0009887218475</v>
       </c>
       <c r="R11" t="n">
-        <v>49790</v>
+        <v>56280</v>
       </c>
       <c r="S11" t="n">
-        <v>39.62578947683173</v>
+        <v>46.35169720469379</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0007028579712</v>
+        <v>900.0009496212006</v>
       </c>
       <c r="F12" t="n">
-        <v>19530</v>
+        <v>17916</v>
       </c>
       <c r="G12" t="n">
-        <v>95.03350725024458</v>
+        <v>95.01230313628747</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>900.0006952285767</v>
+        <v>900.0008323192596</v>
       </c>
       <c r="L12" t="n">
-        <v>16882</v>
+        <v>19971</v>
       </c>
       <c r="M12" t="n">
-        <v>95.22163479532385</v>
+        <v>95.26771945259851</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>900.0006878376007</v>
+        <v>900.0006642341614</v>
       </c>
       <c r="R12" t="n">
-        <v>18704</v>
+        <v>22088</v>
       </c>
       <c r="S12" t="n">
-        <v>94.8236213394848</v>
+        <v>95.3005586504752</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
